--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_64ha_100ha_2%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_64ha_100ha_2%_6m_0_LM/Planilha_Unificada.xlsx
@@ -2977,28 +2977,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>262.1793241856642</v>
+        <v>340.487494348451</v>
       </c>
       <c r="AB2" t="n">
-        <v>358.7253178862848</v>
+        <v>465.8700110156559</v>
       </c>
       <c r="AC2" t="n">
-        <v>324.4890770213628</v>
+        <v>421.4080310169879</v>
       </c>
       <c r="AD2" t="n">
-        <v>262179.3241856642</v>
+        <v>340487.494348451</v>
       </c>
       <c r="AE2" t="n">
-        <v>358725.3178862848</v>
+        <v>465870.0110156559</v>
       </c>
       <c r="AF2" t="n">
         <v>1.010261930595198e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.53385416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>324489.0770213628</v>
+        <v>421408.0310169879</v>
       </c>
     </row>
     <row r="3">
@@ -3083,28 +3083,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>163.2100570292818</v>
+        <v>221.9070192325902</v>
       </c>
       <c r="AB3" t="n">
-        <v>223.3112003469056</v>
+        <v>303.6229735606448</v>
       </c>
       <c r="AC3" t="n">
-        <v>201.9986928050993</v>
+        <v>274.6456231016263</v>
       </c>
       <c r="AD3" t="n">
-        <v>163210.0570292818</v>
+        <v>221907.0192325902</v>
       </c>
       <c r="AE3" t="n">
-        <v>223311.2003469056</v>
+        <v>303622.9735606448</v>
       </c>
       <c r="AF3" t="n">
         <v>1.46098156631342e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.7421875</v>
       </c>
       <c r="AH3" t="n">
-        <v>201998.6928050993</v>
+        <v>274645.6231016263</v>
       </c>
     </row>
     <row r="4">
@@ -3189,28 +3189,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>142.7095852308501</v>
+        <v>191.6521915825911</v>
       </c>
       <c r="AB4" t="n">
-        <v>195.2615504153202</v>
+        <v>262.2269836211426</v>
       </c>
       <c r="AC4" t="n">
-        <v>176.6260620950445</v>
+        <v>237.2004083423003</v>
       </c>
       <c r="AD4" t="n">
-        <v>142709.5852308501</v>
+        <v>191652.1915825911</v>
       </c>
       <c r="AE4" t="n">
-        <v>195261.5504153202</v>
+        <v>262226.9836211426</v>
       </c>
       <c r="AF4" t="n">
         <v>1.642850893006738e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.55078125</v>
       </c>
       <c r="AH4" t="n">
-        <v>176626.0620950445</v>
+        <v>237200.4083423003</v>
       </c>
     </row>
     <row r="5">
@@ -3295,28 +3295,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>126.2102899317536</v>
+        <v>175.1187308647139</v>
       </c>
       <c r="AB5" t="n">
-        <v>172.6864866895716</v>
+        <v>239.6051732621463</v>
       </c>
       <c r="AC5" t="n">
-        <v>156.2055307669733</v>
+        <v>216.7375918140492</v>
       </c>
       <c r="AD5" t="n">
-        <v>126210.2899317536</v>
+        <v>175118.7308647139</v>
       </c>
       <c r="AE5" t="n">
-        <v>172686.4866895716</v>
+        <v>239605.1732621463</v>
       </c>
       <c r="AF5" t="n">
         <v>1.775106344523114e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.841145833333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>156205.5307669733</v>
+        <v>216737.5918140492</v>
       </c>
     </row>
     <row r="6">
@@ -3401,28 +3401,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>123.2410808926598</v>
+        <v>162.4293313928335</v>
       </c>
       <c r="AB6" t="n">
-        <v>168.6238838900277</v>
+        <v>222.2429770879334</v>
       </c>
       <c r="AC6" t="n">
-        <v>152.5306570767177</v>
+        <v>201.0324192747022</v>
       </c>
       <c r="AD6" t="n">
-        <v>123241.0808926598</v>
+        <v>162429.3313928335</v>
       </c>
       <c r="AE6" t="n">
-        <v>168623.8838900277</v>
+        <v>222242.9770879334</v>
       </c>
       <c r="AF6" t="n">
         <v>1.840414404705007e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.528645833333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>152530.6570767177</v>
+        <v>201032.4192747023</v>
       </c>
     </row>
     <row r="7">
@@ -3507,28 +3507,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>121.9029659813026</v>
+        <v>160.989731254991</v>
       </c>
       <c r="AB7" t="n">
-        <v>166.7930160348461</v>
+        <v>220.2732526686626</v>
       </c>
       <c r="AC7" t="n">
-        <v>150.8745246799949</v>
+        <v>199.2506825894805</v>
       </c>
       <c r="AD7" t="n">
-        <v>121902.9659813026</v>
+        <v>160989.731254991</v>
       </c>
       <c r="AE7" t="n">
-        <v>166793.0160348461</v>
+        <v>220273.2526686626</v>
       </c>
       <c r="AF7" t="n">
         <v>1.860881936301325e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.4375</v>
       </c>
       <c r="AH7" t="n">
-        <v>150874.5246799949</v>
+        <v>199250.6825894805</v>
       </c>
     </row>
     <row r="8">
@@ -3613,28 +3613,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>120.0566312646528</v>
+        <v>159.1433965383412</v>
       </c>
       <c r="AB8" t="n">
-        <v>164.2667794209881</v>
+        <v>217.7470160548046</v>
       </c>
       <c r="AC8" t="n">
-        <v>148.5893885429674</v>
+        <v>196.9655464524529</v>
       </c>
       <c r="AD8" t="n">
-        <v>120056.6312646528</v>
+        <v>159143.3965383412</v>
       </c>
       <c r="AE8" t="n">
-        <v>164266.7794209881</v>
+        <v>217747.0160548046</v>
       </c>
       <c r="AF8" t="n">
         <v>1.892583707855105e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>8.294270833333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>148589.3885429674</v>
+        <v>196965.5464524529</v>
       </c>
     </row>
     <row r="9">
@@ -3719,28 +3719,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>119.5228673760629</v>
+        <v>158.6096326497513</v>
       </c>
       <c r="AB9" t="n">
-        <v>163.536460120619</v>
+        <v>217.0166967544355</v>
       </c>
       <c r="AC9" t="n">
-        <v>147.9287698916156</v>
+        <v>196.3049278011012</v>
       </c>
       <c r="AD9" t="n">
-        <v>119522.8673760629</v>
+        <v>158609.6326497513</v>
       </c>
       <c r="AE9" t="n">
-        <v>163536.460120619</v>
+        <v>217016.6967544355</v>
       </c>
       <c r="AF9" t="n">
         <v>1.896561496681245e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>9</v>
+        <v>8.274739583333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>147928.7698916156</v>
+        <v>196304.9278011012</v>
       </c>
     </row>
     <row r="10">
@@ -3825,28 +3825,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>119.5603409009376</v>
+        <v>158.647106174626</v>
       </c>
       <c r="AB10" t="n">
-        <v>163.5877330505678</v>
+        <v>217.0679696843843</v>
       </c>
       <c r="AC10" t="n">
-        <v>147.9751494050921</v>
+        <v>196.3513073145777</v>
       </c>
       <c r="AD10" t="n">
-        <v>119560.3409009376</v>
+        <v>158647.106174626</v>
       </c>
       <c r="AE10" t="n">
-        <v>163587.7330505678</v>
+        <v>217067.9696843843</v>
       </c>
       <c r="AF10" t="n">
         <v>1.899695512120021e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>9</v>
+        <v>8.26171875</v>
       </c>
       <c r="AH10" t="n">
-        <v>147975.1494050921</v>
+        <v>196351.3073145777</v>
       </c>
     </row>
   </sheetData>
@@ -4122,28 +4122,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>208.4615479503541</v>
+        <v>266.5116884620817</v>
       </c>
       <c r="AB2" t="n">
-        <v>285.2262865799694</v>
+        <v>364.6530498197018</v>
       </c>
       <c r="AC2" t="n">
-        <v>258.0046901064684</v>
+        <v>329.8510745386784</v>
       </c>
       <c r="AD2" t="n">
-        <v>208461.5479503541</v>
+        <v>266511.6884620817</v>
       </c>
       <c r="AE2" t="n">
-        <v>285226.2865799694</v>
+        <v>364653.0498197018</v>
       </c>
       <c r="AF2" t="n">
         <v>1.302010632595828e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.19010416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>258004.6901064684</v>
+        <v>329851.0745386784</v>
       </c>
     </row>
     <row r="3">
@@ -4228,28 +4228,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>138.6876168314421</v>
+        <v>187.090362581982</v>
       </c>
       <c r="AB3" t="n">
-        <v>189.7585158145301</v>
+        <v>255.9852879288207</v>
       </c>
       <c r="AC3" t="n">
-        <v>171.6482293929945</v>
+        <v>231.5544113265767</v>
       </c>
       <c r="AD3" t="n">
-        <v>138687.6168314421</v>
+        <v>187090.362581982</v>
       </c>
       <c r="AE3" t="n">
-        <v>189758.5158145301</v>
+        <v>255985.2879288207</v>
       </c>
       <c r="AF3" t="n">
         <v>1.769778507711244e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.700520833333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>171648.2293929945</v>
+        <v>231554.4113265767</v>
       </c>
     </row>
     <row r="4">
@@ -4334,28 +4334,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>121.8600747817639</v>
+        <v>170.228655113523</v>
       </c>
       <c r="AB4" t="n">
-        <v>166.7343304034111</v>
+        <v>232.914355884454</v>
       </c>
       <c r="AC4" t="n">
-        <v>150.8214399228582</v>
+        <v>210.6853366562605</v>
       </c>
       <c r="AD4" t="n">
-        <v>121860.0747817639</v>
+        <v>170228.655113523</v>
       </c>
       <c r="AE4" t="n">
-        <v>166734.3304034111</v>
+        <v>232914.355884454</v>
       </c>
       <c r="AF4" t="n">
         <v>1.943506541631626e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.834635416666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>150821.4399228582</v>
+        <v>210685.3366562605</v>
       </c>
     </row>
     <row r="5">
@@ -4440,28 +4440,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>118.3470340287079</v>
+        <v>157.0019108214354</v>
       </c>
       <c r="AB5" t="n">
-        <v>161.9276330606626</v>
+        <v>214.8169408212536</v>
       </c>
       <c r="AC5" t="n">
-        <v>146.473487028258</v>
+        <v>194.3151134868046</v>
       </c>
       <c r="AD5" t="n">
-        <v>118347.0340287079</v>
+        <v>157001.9108214354</v>
       </c>
       <c r="AE5" t="n">
-        <v>161927.6330606626</v>
+        <v>214816.9408212536</v>
       </c>
       <c r="AF5" t="n">
         <v>2.031003639796507e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.45703125</v>
       </c>
       <c r="AH5" t="n">
-        <v>146473.487028258</v>
+        <v>194315.1134868047</v>
       </c>
     </row>
     <row r="6">
@@ -4546,28 +4546,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>116.0586415222157</v>
+        <v>154.7135183149432</v>
       </c>
       <c r="AB6" t="n">
-        <v>158.7965534765293</v>
+        <v>211.6858612371203</v>
       </c>
       <c r="AC6" t="n">
-        <v>143.6412332851356</v>
+        <v>191.4828597436823</v>
       </c>
       <c r="AD6" t="n">
-        <v>116058.6415222157</v>
+        <v>154713.5183149432</v>
       </c>
       <c r="AE6" t="n">
-        <v>158796.5534765293</v>
+        <v>211685.8612371203</v>
       </c>
       <c r="AF6" t="n">
         <v>2.077798892176518e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.268229166666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>143641.2332851356</v>
+        <v>191482.8597436823</v>
       </c>
     </row>
     <row r="7">
@@ -4652,28 +4652,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>115.0136871835452</v>
+        <v>153.6685639762727</v>
       </c>
       <c r="AB7" t="n">
-        <v>157.3668008502292</v>
+        <v>210.2561086108202</v>
       </c>
       <c r="AC7" t="n">
-        <v>142.3479342428187</v>
+        <v>190.1895607013653</v>
       </c>
       <c r="AD7" t="n">
-        <v>115013.6871835452</v>
+        <v>153668.5639762727</v>
       </c>
       <c r="AE7" t="n">
-        <v>157366.8008502292</v>
+        <v>210256.1086108202</v>
       </c>
       <c r="AF7" t="n">
         <v>2.10531154619701e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.157552083333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>142347.9342428187</v>
+        <v>190189.5607013653</v>
       </c>
     </row>
   </sheetData>
@@ -4949,28 +4949,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>124.222120673635</v>
+        <v>170.999529372267</v>
       </c>
       <c r="AB2" t="n">
-        <v>169.9661857987778</v>
+        <v>233.969100053839</v>
       </c>
       <c r="AC2" t="n">
-        <v>153.7448515752297</v>
+        <v>211.6394175224625</v>
       </c>
       <c r="AD2" t="n">
-        <v>124222.120673635</v>
+        <v>170999.529372267</v>
       </c>
       <c r="AE2" t="n">
-        <v>169966.1857987778</v>
+        <v>233969.100053839</v>
       </c>
       <c r="AF2" t="n">
         <v>2.445448255129409e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.8046875</v>
       </c>
       <c r="AH2" t="n">
-        <v>153744.8515752297</v>
+        <v>211639.4175224625</v>
       </c>
     </row>
     <row r="3">
@@ -5055,28 +5055,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>105.6037335936407</v>
+        <v>142.9583407448418</v>
       </c>
       <c r="AB3" t="n">
-        <v>144.4916872106748</v>
+        <v>195.6019086838823</v>
       </c>
       <c r="AC3" t="n">
-        <v>130.7016033786838</v>
+        <v>176.933937048151</v>
       </c>
       <c r="AD3" t="n">
-        <v>105603.7335936407</v>
+        <v>142958.3407448418</v>
       </c>
       <c r="AE3" t="n">
-        <v>144491.6872106748</v>
+        <v>195601.9086838823</v>
       </c>
       <c r="AF3" t="n">
         <v>2.865621029298499e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.365885416666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>130701.6033786839</v>
+        <v>176933.937048151</v>
       </c>
     </row>
   </sheetData>
@@ -5352,28 +5352,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>142.4623986730541</v>
+        <v>189.8079295077434</v>
       </c>
       <c r="AB2" t="n">
-        <v>194.9233388618427</v>
+        <v>259.7035828872369</v>
       </c>
       <c r="AC2" t="n">
-        <v>176.3201289775479</v>
+        <v>234.9178374328226</v>
       </c>
       <c r="AD2" t="n">
-        <v>142462.3986730541</v>
+        <v>189807.9295077435</v>
       </c>
       <c r="AE2" t="n">
-        <v>194923.3388618427</v>
+        <v>259703.5828872369</v>
       </c>
       <c r="AF2" t="n">
         <v>2.031571694687863e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.21484375</v>
       </c>
       <c r="AH2" t="n">
-        <v>176320.1289775479</v>
+        <v>234917.8374328226</v>
       </c>
     </row>
     <row r="3">
@@ -5458,28 +5458,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>112.9242044254565</v>
+        <v>160.3028896490695</v>
       </c>
       <c r="AB3" t="n">
-        <v>154.5078783591402</v>
+        <v>219.3334856821281</v>
       </c>
       <c r="AC3" t="n">
-        <v>139.7618633017554</v>
+        <v>198.4006056451693</v>
       </c>
       <c r="AD3" t="n">
-        <v>112924.2044254565</v>
+        <v>160302.8896490695</v>
       </c>
       <c r="AE3" t="n">
-        <v>154507.8783591402</v>
+        <v>219333.4856821281</v>
       </c>
       <c r="AF3" t="n">
         <v>2.387565447766995e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.69140625</v>
       </c>
       <c r="AH3" t="n">
-        <v>139761.8633017554</v>
+        <v>198400.6056451693</v>
       </c>
     </row>
     <row r="4">
@@ -5564,28 +5564,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>109.1670950063877</v>
+        <v>147.0300557125983</v>
       </c>
       <c r="AB4" t="n">
-        <v>149.3672355000034</v>
+        <v>201.1730087341506</v>
       </c>
       <c r="AC4" t="n">
-        <v>135.1118361821555</v>
+        <v>181.9733391287114</v>
       </c>
       <c r="AD4" t="n">
-        <v>109167.0950063877</v>
+        <v>147030.0557125983</v>
       </c>
       <c r="AE4" t="n">
-        <v>149367.2355000034</v>
+        <v>201173.0087341506</v>
       </c>
       <c r="AF4" t="n">
         <v>2.515965523328989e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.248697916666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>135111.8361821555</v>
+        <v>181973.3391287114</v>
       </c>
     </row>
     <row r="5">
@@ -5670,28 +5670,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>109.2597996017663</v>
+        <v>147.1227603079769</v>
       </c>
       <c r="AB5" t="n">
-        <v>149.4940780172385</v>
+        <v>201.2998512513856</v>
       </c>
       <c r="AC5" t="n">
-        <v>135.2265730275702</v>
+        <v>182.0880759741262</v>
       </c>
       <c r="AD5" t="n">
-        <v>109259.7996017663</v>
+        <v>147122.7603079769</v>
       </c>
       <c r="AE5" t="n">
-        <v>149494.0780172385</v>
+        <v>201299.8512513856</v>
       </c>
       <c r="AF5" t="n">
         <v>2.516794528038354e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.248697916666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>135226.5730275702</v>
+        <v>182088.0759741262</v>
       </c>
     </row>
   </sheetData>
@@ -5967,28 +5967,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>103.2809555392912</v>
+        <v>149.5030060763956</v>
       </c>
       <c r="AB2" t="n">
-        <v>141.31355980298</v>
+        <v>204.5566085207667</v>
       </c>
       <c r="AC2" t="n">
-        <v>127.8267919902485</v>
+        <v>185.0340129006061</v>
       </c>
       <c r="AD2" t="n">
-        <v>103280.9555392912</v>
+        <v>149503.0060763957</v>
       </c>
       <c r="AE2" t="n">
-        <v>141313.55980298</v>
+        <v>204556.6085207667</v>
       </c>
       <c r="AF2" t="n">
         <v>3.173040556100249e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.65234375</v>
       </c>
       <c r="AH2" t="n">
-        <v>127826.7919902485</v>
+        <v>185034.0129006061</v>
       </c>
     </row>
     <row r="3">
@@ -6073,28 +6073,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>103.2063556685807</v>
+        <v>149.4284062056852</v>
       </c>
       <c r="AB3" t="n">
-        <v>141.2114889687599</v>
+        <v>204.4545376865466</v>
       </c>
       <c r="AC3" t="n">
-        <v>127.7344626531891</v>
+        <v>184.9416835635467</v>
       </c>
       <c r="AD3" t="n">
-        <v>103206.3556685807</v>
+        <v>149428.4062056852</v>
       </c>
       <c r="AE3" t="n">
-        <v>141211.4889687599</v>
+        <v>204454.5376865466</v>
       </c>
       <c r="AF3" t="n">
         <v>3.185438705077476e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.619791666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>127734.4626531891</v>
+        <v>184941.6835635467</v>
       </c>
     </row>
   </sheetData>
@@ -6370,28 +6370,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>215.4798940687275</v>
+        <v>283.4423949605175</v>
       </c>
       <c r="AB2" t="n">
-        <v>294.8290973667015</v>
+        <v>387.8183893809167</v>
       </c>
       <c r="AC2" t="n">
-        <v>266.6910221093474</v>
+        <v>350.8055466049292</v>
       </c>
       <c r="AD2" t="n">
-        <v>215479.8940687275</v>
+        <v>283442.3949605175</v>
       </c>
       <c r="AE2" t="n">
-        <v>294829.0973667015</v>
+        <v>387818.3893809167</v>
       </c>
       <c r="AF2" t="n">
         <v>1.224223300471279e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.69140625</v>
       </c>
       <c r="AH2" t="n">
-        <v>266691.0221093475</v>
+        <v>350805.5466049293</v>
       </c>
     </row>
     <row r="3">
@@ -6476,28 +6476,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>142.060415812643</v>
+        <v>200.2456571680412</v>
       </c>
       <c r="AB3" t="n">
-        <v>194.3733281779963</v>
+        <v>273.9849423520944</v>
       </c>
       <c r="AC3" t="n">
-        <v>175.8226105414228</v>
+        <v>247.8362039943726</v>
       </c>
       <c r="AD3" t="n">
-        <v>142060.415812643</v>
+        <v>200245.6571680412</v>
       </c>
       <c r="AE3" t="n">
-        <v>194373.3281779963</v>
+        <v>273984.9423520945</v>
       </c>
       <c r="AF3" t="n">
         <v>1.684166148992501e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.947916666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>175822.6105414228</v>
+        <v>247836.2039943726</v>
       </c>
     </row>
     <row r="4">
@@ -6582,28 +6582,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>134.3860342883004</v>
+        <v>173.1885946946833</v>
       </c>
       <c r="AB4" t="n">
-        <v>183.8729008065782</v>
+        <v>236.9642758027136</v>
       </c>
       <c r="AC4" t="n">
-        <v>166.3243292208871</v>
+        <v>214.348737901621</v>
       </c>
       <c r="AD4" t="n">
-        <v>134386.0342883004</v>
+        <v>173188.5946946833</v>
       </c>
       <c r="AE4" t="n">
-        <v>183872.9008065782</v>
+        <v>236964.2758027136</v>
       </c>
       <c r="AF4" t="n">
         <v>1.858150574398531e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.016927083333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>166324.3292208871</v>
+        <v>214348.737901621</v>
       </c>
     </row>
     <row r="5">
@@ -6688,28 +6688,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>120.5667742659879</v>
+        <v>159.4366544800752</v>
       </c>
       <c r="AB5" t="n">
-        <v>164.9647795813353</v>
+        <v>218.1482645083123</v>
       </c>
       <c r="AC5" t="n">
-        <v>149.2207725476606</v>
+        <v>197.3285003167136</v>
       </c>
       <c r="AD5" t="n">
-        <v>120566.7742659879</v>
+        <v>159436.6544800752</v>
       </c>
       <c r="AE5" t="n">
-        <v>164964.7795813353</v>
+        <v>218148.2645083122</v>
       </c>
       <c r="AF5" t="n">
         <v>1.955271929193168e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.567708333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>149220.7725476606</v>
+        <v>197328.5003167136</v>
       </c>
     </row>
     <row r="6">
@@ -6794,28 +6794,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>117.9714214453556</v>
+        <v>156.7398164329578</v>
       </c>
       <c r="AB6" t="n">
-        <v>161.4137033532626</v>
+        <v>214.4583317161502</v>
       </c>
       <c r="AC6" t="n">
-        <v>146.0086060508272</v>
+        <v>193.9907295313812</v>
       </c>
       <c r="AD6" t="n">
-        <v>117971.4214453556</v>
+        <v>156739.8164329578</v>
       </c>
       <c r="AE6" t="n">
-        <v>161413.7033532626</v>
+        <v>214458.3317161502</v>
       </c>
       <c r="AF6" t="n">
         <v>2.01066688162308e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.333333333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>146008.6060508272</v>
+        <v>193990.7295313812</v>
       </c>
     </row>
     <row r="7">
@@ -6900,28 +6900,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>116.1267782969349</v>
+        <v>154.8951732845371</v>
       </c>
       <c r="AB7" t="n">
-        <v>158.8897812176824</v>
+        <v>211.9344095805701</v>
       </c>
       <c r="AC7" t="n">
-        <v>143.7255635015191</v>
+        <v>191.7076869820731</v>
       </c>
       <c r="AD7" t="n">
-        <v>116126.7782969349</v>
+        <v>154895.1732845371</v>
       </c>
       <c r="AE7" t="n">
-        <v>158889.7812176824</v>
+        <v>211934.4095805701</v>
       </c>
       <c r="AF7" t="n">
         <v>2.04768265373935e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.18359375</v>
       </c>
       <c r="AH7" t="n">
-        <v>143725.5635015191</v>
+        <v>191707.6869820731</v>
       </c>
     </row>
     <row r="8">
@@ -7006,28 +7006,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>116.4384438963828</v>
+        <v>155.2068388839849</v>
       </c>
       <c r="AB8" t="n">
-        <v>159.3162158405626</v>
+        <v>212.3608442034503</v>
       </c>
       <c r="AC8" t="n">
-        <v>144.1112998024965</v>
+        <v>192.0934232830505</v>
       </c>
       <c r="AD8" t="n">
-        <v>116438.4438963828</v>
+        <v>155206.838883985</v>
       </c>
       <c r="AE8" t="n">
-        <v>159316.2158405627</v>
+        <v>212360.8442034503</v>
       </c>
       <c r="AF8" t="n">
         <v>2.037926758306759e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>8.22265625</v>
       </c>
       <c r="AH8" t="n">
-        <v>144111.2998024964</v>
+        <v>192093.4232830505</v>
       </c>
     </row>
   </sheetData>
@@ -7303,28 +7303,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>101.6884821133485</v>
+        <v>147.6019085102096</v>
       </c>
       <c r="AB2" t="n">
-        <v>139.134667406637</v>
+        <v>201.9554429602068</v>
       </c>
       <c r="AC2" t="n">
-        <v>125.8558500261171</v>
+        <v>182.6810989303864</v>
       </c>
       <c r="AD2" t="n">
-        <v>101688.4821133485</v>
+        <v>147601.9085102096</v>
       </c>
       <c r="AE2" t="n">
-        <v>139134.667406637</v>
+        <v>201955.4429602068</v>
       </c>
       <c r="AF2" t="n">
         <v>3.390310807282824e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.860677083333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>125855.8500261171</v>
+        <v>182681.0989303864</v>
       </c>
     </row>
     <row r="3">
@@ -7409,28 +7409,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>101.8835712100267</v>
+        <v>147.7969976068877</v>
       </c>
       <c r="AB3" t="n">
-        <v>139.4015969154354</v>
+        <v>202.2223724690052</v>
       </c>
       <c r="AC3" t="n">
-        <v>126.0973041572339</v>
+        <v>182.9225530615031</v>
       </c>
       <c r="AD3" t="n">
-        <v>101883.5712100267</v>
+        <v>147796.9976068877</v>
       </c>
       <c r="AE3" t="n">
-        <v>139401.5969154355</v>
+        <v>202222.3724690052</v>
       </c>
       <c r="AF3" t="n">
         <v>3.390541519144497e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.860677083333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>126097.3041572339</v>
+        <v>182922.5530615031</v>
       </c>
     </row>
   </sheetData>
@@ -7706,28 +7706,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>169.3819056370887</v>
+        <v>226.9125683386462</v>
       </c>
       <c r="AB2" t="n">
-        <v>231.7557958948466</v>
+        <v>310.4717866767882</v>
       </c>
       <c r="AC2" t="n">
-        <v>209.6373480060117</v>
+        <v>280.8407951063369</v>
       </c>
       <c r="AD2" t="n">
-        <v>169381.9056370887</v>
+        <v>226912.5683386462</v>
       </c>
       <c r="AE2" t="n">
-        <v>231755.7958948466</v>
+        <v>310471.7866767882</v>
       </c>
       <c r="AF2" t="n">
         <v>1.596918573312544e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.69270833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>209637.3480060117</v>
+        <v>280840.7951063369</v>
       </c>
     </row>
     <row r="3">
@@ -7812,28 +7812,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>129.1293780440315</v>
+        <v>167.4499987894795</v>
       </c>
       <c r="AB3" t="n">
-        <v>176.6805118258667</v>
+        <v>229.1124757162341</v>
       </c>
       <c r="AC3" t="n">
-        <v>159.8183717499111</v>
+        <v>207.246302595322</v>
       </c>
       <c r="AD3" t="n">
-        <v>129129.3780440314</v>
+        <v>167449.9987894795</v>
       </c>
       <c r="AE3" t="n">
-        <v>176680.5118258667</v>
+        <v>229112.4757162342</v>
       </c>
       <c r="AF3" t="n">
         <v>2.073082834391332e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.010416666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>159818.3717499111</v>
+        <v>207246.302595322</v>
       </c>
     </row>
     <row r="4">
@@ -7918,28 +7918,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>115.5283549855297</v>
+        <v>153.9162955386822</v>
       </c>
       <c r="AB4" t="n">
-        <v>158.0709920424449</v>
+        <v>210.5950658636538</v>
       </c>
       <c r="AC4" t="n">
-        <v>142.9849184159881</v>
+        <v>190.4961683497181</v>
       </c>
       <c r="AD4" t="n">
-        <v>115528.3549855297</v>
+        <v>153916.2955386822</v>
       </c>
       <c r="AE4" t="n">
-        <v>158070.9920424449</v>
+        <v>210595.0658636538</v>
       </c>
       <c r="AF4" t="n">
         <v>2.188560053540975e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.53515625</v>
       </c>
       <c r="AH4" t="n">
-        <v>142984.9184159881</v>
+        <v>190496.1683497181</v>
       </c>
     </row>
     <row r="5">
@@ -8024,28 +8024,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>112.3363951557915</v>
+        <v>150.6228504824588</v>
       </c>
       <c r="AB5" t="n">
-        <v>153.7036117840702</v>
+        <v>206.0888290411899</v>
       </c>
       <c r="AC5" t="n">
-        <v>139.0343547998147</v>
+        <v>186.4200004450456</v>
       </c>
       <c r="AD5" t="n">
-        <v>112336.3951557915</v>
+        <v>150622.8504824588</v>
       </c>
       <c r="AE5" t="n">
-        <v>153703.6117840702</v>
+        <v>206088.8290411899</v>
       </c>
       <c r="AF5" t="n">
         <v>2.277075378502672e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.203125</v>
       </c>
       <c r="AH5" t="n">
-        <v>139034.3547998146</v>
+        <v>186420.0004450456</v>
       </c>
     </row>
     <row r="6">
@@ -8130,28 +8130,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>112.1590823388811</v>
+        <v>150.4455376655484</v>
       </c>
       <c r="AB6" t="n">
-        <v>153.4610045654841</v>
+        <v>205.8462218226038</v>
       </c>
       <c r="AC6" t="n">
-        <v>138.814901673669</v>
+        <v>186.2005473188999</v>
       </c>
       <c r="AD6" t="n">
-        <v>112159.0823388811</v>
+        <v>150445.5376655484</v>
       </c>
       <c r="AE6" t="n">
-        <v>153461.0045654841</v>
+        <v>205846.2218226038</v>
       </c>
       <c r="AF6" t="n">
         <v>2.286913601594656e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.1640625</v>
       </c>
       <c r="AH6" t="n">
-        <v>138814.901673669</v>
+        <v>186200.5473188999</v>
       </c>
     </row>
   </sheetData>
@@ -8427,28 +8427,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>192.1647610441436</v>
+        <v>259.6882286593748</v>
       </c>
       <c r="AB2" t="n">
-        <v>262.9283037714071</v>
+        <v>355.3168910878373</v>
       </c>
       <c r="AC2" t="n">
-        <v>237.8347954817328</v>
+        <v>321.405945692802</v>
       </c>
       <c r="AD2" t="n">
-        <v>192164.7610441436</v>
+        <v>259688.2286593748</v>
       </c>
       <c r="AE2" t="n">
-        <v>262928.3037714071</v>
+        <v>355316.8910878373</v>
       </c>
       <c r="AF2" t="n">
         <v>1.386491863424439e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.71484375</v>
       </c>
       <c r="AH2" t="n">
-        <v>237834.7954817328</v>
+        <v>321405.945692802</v>
       </c>
     </row>
     <row r="3">
@@ -8533,28 +8533,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>135.8937735123365</v>
+        <v>184.1492256794856</v>
       </c>
       <c r="AB3" t="n">
-        <v>185.9358561296634</v>
+        <v>251.9610946650244</v>
       </c>
       <c r="AC3" t="n">
-        <v>168.1903989833137</v>
+        <v>227.9142814198852</v>
       </c>
       <c r="AD3" t="n">
-        <v>135893.7735123365</v>
+        <v>184149.2256794856</v>
       </c>
       <c r="AE3" t="n">
-        <v>185935.8561296634</v>
+        <v>251961.0946650244</v>
       </c>
       <c r="AF3" t="n">
         <v>1.850244165246258e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.524739583333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>168190.3989833137</v>
+        <v>227914.2814198852</v>
       </c>
     </row>
     <row r="4">
@@ -8639,28 +8639,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>119.5873422009172</v>
+        <v>167.8086289492855</v>
       </c>
       <c r="AB4" t="n">
-        <v>163.6246774204133</v>
+        <v>229.6031693225265</v>
       </c>
       <c r="AC4" t="n">
-        <v>148.0085678561313</v>
+        <v>207.6901650925228</v>
       </c>
       <c r="AD4" t="n">
-        <v>119587.3422009173</v>
+        <v>167808.6289492855</v>
       </c>
       <c r="AE4" t="n">
-        <v>163624.6774204133</v>
+        <v>229603.1693225265</v>
       </c>
       <c r="AF4" t="n">
         <v>2.023924532820955e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.7109375</v>
       </c>
       <c r="AH4" t="n">
-        <v>148008.5678561313</v>
+        <v>207690.1650925228</v>
       </c>
     </row>
     <row r="5">
@@ -8745,28 +8745,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>115.5694671734477</v>
+        <v>154.1065090994625</v>
       </c>
       <c r="AB5" t="n">
-        <v>158.127243551696</v>
+        <v>210.8553244491434</v>
       </c>
       <c r="AC5" t="n">
-        <v>143.0358013601458</v>
+        <v>190.7315882210839</v>
       </c>
       <c r="AD5" t="n">
-        <v>115569.4671734477</v>
+        <v>154106.5090994625</v>
       </c>
       <c r="AE5" t="n">
-        <v>158127.243551696</v>
+        <v>210855.3244491433</v>
       </c>
       <c r="AF5" t="n">
         <v>2.133547573866932e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.26171875</v>
       </c>
       <c r="AH5" t="n">
-        <v>143035.8013601458</v>
+        <v>190731.5882210839</v>
       </c>
     </row>
     <row r="6">
@@ -8851,28 +8851,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>114.0485613904714</v>
+        <v>152.5856033164863</v>
       </c>
       <c r="AB6" t="n">
-        <v>156.0462731618013</v>
+        <v>208.7743540592487</v>
       </c>
       <c r="AC6" t="n">
-        <v>141.1534358636017</v>
+        <v>188.8492227245398</v>
       </c>
       <c r="AD6" t="n">
-        <v>114048.5613904714</v>
+        <v>152585.6033164863</v>
       </c>
       <c r="AE6" t="n">
-        <v>156046.2731618013</v>
+        <v>208774.3540592486</v>
       </c>
       <c r="AF6" t="n">
         <v>2.160405083552684e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.157552083333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>141153.4358636017</v>
+        <v>188849.2227245398</v>
       </c>
     </row>
     <row r="7">
@@ -8957,28 +8957,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>114.1880460721881</v>
+        <v>152.725087998203</v>
       </c>
       <c r="AB7" t="n">
-        <v>156.2371222569559</v>
+        <v>208.9652031544032</v>
       </c>
       <c r="AC7" t="n">
-        <v>141.3260705889732</v>
+        <v>189.0218574499112</v>
       </c>
       <c r="AD7" t="n">
-        <v>114188.0460721881</v>
+        <v>152725.087998203</v>
       </c>
       <c r="AE7" t="n">
-        <v>156237.1222569559</v>
+        <v>208965.2031544032</v>
       </c>
       <c r="AF7" t="n">
         <v>2.15772474740461e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.170572916666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>141326.0705889732</v>
+        <v>189021.8574499112</v>
       </c>
     </row>
   </sheetData>
@@ -9254,28 +9254,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>242.3804631854225</v>
+        <v>320.4489775808142</v>
       </c>
       <c r="AB2" t="n">
-        <v>331.6356428014965</v>
+        <v>438.4524283372077</v>
       </c>
       <c r="AC2" t="n">
-        <v>299.9848025061684</v>
+        <v>396.6071439485518</v>
       </c>
       <c r="AD2" t="n">
-        <v>242380.4631854225</v>
+        <v>320448.9775808142</v>
       </c>
       <c r="AE2" t="n">
-        <v>331635.6428014965</v>
+        <v>438452.4283372076</v>
       </c>
       <c r="AF2" t="n">
         <v>1.077332289134419e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.86979166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>299984.8025061684</v>
+        <v>396607.1439485518</v>
       </c>
     </row>
     <row r="3">
@@ -9360,28 +9360,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>158.8050618114797</v>
+        <v>207.5519168876306</v>
       </c>
       <c r="AB3" t="n">
-        <v>217.2840915552383</v>
+        <v>283.9816892298616</v>
       </c>
       <c r="AC3" t="n">
-        <v>196.5468028174065</v>
+        <v>256.8788753806512</v>
       </c>
       <c r="AD3" t="n">
-        <v>158805.0618114797</v>
+        <v>207551.9168876306</v>
       </c>
       <c r="AE3" t="n">
-        <v>217284.0915552383</v>
+        <v>283981.6892298616</v>
       </c>
       <c r="AF3" t="n">
         <v>1.53685919317181e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.42317708333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>196546.8028174065</v>
+        <v>256878.8753806512</v>
       </c>
     </row>
     <row r="4">
@@ -9466,28 +9466,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>141.0033870704993</v>
+        <v>189.7160767278694</v>
       </c>
       <c r="AB4" t="n">
-        <v>192.9270548201791</v>
+        <v>259.5779058615545</v>
       </c>
       <c r="AC4" t="n">
-        <v>174.5143674830178</v>
+        <v>234.8041548460826</v>
       </c>
       <c r="AD4" t="n">
-        <v>141003.3870704993</v>
+        <v>189716.0767278694</v>
       </c>
       <c r="AE4" t="n">
-        <v>192927.0548201791</v>
+        <v>259577.9058615546</v>
       </c>
       <c r="AF4" t="n">
         <v>1.688566323828255e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.4921875</v>
       </c>
       <c r="AH4" t="n">
-        <v>174514.3674830178</v>
+        <v>234804.1548460826</v>
       </c>
     </row>
     <row r="5">
@@ -9572,28 +9572,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>126.2625283364842</v>
+        <v>175.0425378015587</v>
       </c>
       <c r="AB5" t="n">
-        <v>172.7579615795197</v>
+        <v>239.5009225517366</v>
       </c>
       <c r="AC5" t="n">
-        <v>156.2701841937404</v>
+        <v>216.6432906451242</v>
       </c>
       <c r="AD5" t="n">
-        <v>126262.5283364842</v>
+        <v>175042.5378015587</v>
       </c>
       <c r="AE5" t="n">
-        <v>172757.9615795197</v>
+        <v>239500.9225517366</v>
       </c>
       <c r="AF5" t="n">
         <v>1.788391781638531e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.958333333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>156270.1841937404</v>
+        <v>216643.2906451242</v>
       </c>
     </row>
     <row r="6">
@@ -9678,28 +9678,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>123.2702519682501</v>
+        <v>172.0502614333246</v>
       </c>
       <c r="AB6" t="n">
-        <v>168.6637970425873</v>
+        <v>235.4067580148043</v>
       </c>
       <c r="AC6" t="n">
-        <v>152.5667609740155</v>
+        <v>212.9398674253993</v>
       </c>
       <c r="AD6" t="n">
-        <v>123270.2519682501</v>
+        <v>172050.2614333246</v>
       </c>
       <c r="AE6" t="n">
-        <v>168663.7970425873</v>
+        <v>235406.7580148043</v>
       </c>
       <c r="AF6" t="n">
         <v>1.852136341729412e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.65234375</v>
       </c>
       <c r="AH6" t="n">
-        <v>152566.7609740155</v>
+        <v>212939.8674253993</v>
       </c>
     </row>
     <row r="7">
@@ -9784,28 +9784,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>120.1610924792122</v>
+        <v>159.145112578592</v>
       </c>
       <c r="AB7" t="n">
-        <v>164.4097078632518</v>
+        <v>217.7493640167821</v>
       </c>
       <c r="AC7" t="n">
-        <v>148.7186760953028</v>
+        <v>196.9676703282347</v>
       </c>
       <c r="AD7" t="n">
-        <v>120161.0924792122</v>
+        <v>159145.112578592</v>
       </c>
       <c r="AE7" t="n">
-        <v>164409.7078632518</v>
+        <v>217749.3640167821</v>
       </c>
       <c r="AF7" t="n">
         <v>1.914724147254938e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.365885416666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>148718.6760953027</v>
+        <v>196967.6703282347</v>
       </c>
     </row>
     <row r="8">
@@ -9890,28 +9890,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>118.3207558672381</v>
+        <v>157.3047759666179</v>
       </c>
       <c r="AB8" t="n">
-        <v>161.891678120829</v>
+        <v>215.2313342743593</v>
       </c>
       <c r="AC8" t="n">
-        <v>146.440963577419</v>
+        <v>194.689957810351</v>
       </c>
       <c r="AD8" t="n">
-        <v>118320.7558672381</v>
+        <v>157304.7759666179</v>
       </c>
       <c r="AE8" t="n">
-        <v>161891.678120829</v>
+        <v>215231.3342743593</v>
       </c>
       <c r="AF8" t="n">
         <v>1.945464284534286e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>8.235677083333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>146440.963577419</v>
+        <v>194689.957810351</v>
       </c>
     </row>
     <row r="9">
@@ -9996,28 +9996,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>118.2613674125586</v>
+        <v>157.2453875119384</v>
       </c>
       <c r="AB9" t="n">
-        <v>161.8104202171028</v>
+        <v>215.1500763706331</v>
       </c>
       <c r="AC9" t="n">
-        <v>146.3674608139783</v>
+        <v>194.6164550469102</v>
       </c>
       <c r="AD9" t="n">
-        <v>118261.3674125586</v>
+        <v>157245.3875119384</v>
       </c>
       <c r="AE9" t="n">
-        <v>161810.4202171028</v>
+        <v>215150.0763706331</v>
       </c>
       <c r="AF9" t="n">
         <v>1.941624843849275e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>9</v>
+        <v>8.255208333333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>146367.4608139783</v>
+        <v>194616.4550469102</v>
       </c>
     </row>
   </sheetData>
@@ -10293,28 +10293,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>147.1110084445034</v>
+        <v>204.1952949609582</v>
       </c>
       <c r="AB2" t="n">
-        <v>201.2837718333255</v>
+        <v>279.3890110260825</v>
       </c>
       <c r="AC2" t="n">
-        <v>182.0735311531581</v>
+        <v>252.7245159387749</v>
       </c>
       <c r="AD2" t="n">
-        <v>147111.0084445034</v>
+        <v>204195.2949609582</v>
       </c>
       <c r="AE2" t="n">
-        <v>201283.7718333255</v>
+        <v>279389.0110260824</v>
       </c>
       <c r="AF2" t="n">
         <v>1.883000192979146e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.60546875</v>
       </c>
       <c r="AH2" t="n">
-        <v>182073.5311531581</v>
+        <v>252724.5159387749</v>
       </c>
     </row>
     <row r="3">
@@ -10399,28 +10399,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>115.6438848592803</v>
+        <v>163.2084293865292</v>
       </c>
       <c r="AB3" t="n">
-        <v>158.2290651125287</v>
+        <v>223.308973334285</v>
       </c>
       <c r="AC3" t="n">
-        <v>143.1279052141202</v>
+        <v>201.9966783354375</v>
       </c>
       <c r="AD3" t="n">
-        <v>115643.8848592803</v>
+        <v>163208.4293865292</v>
       </c>
       <c r="AE3" t="n">
-        <v>158229.0651125287</v>
+        <v>223308.973334285</v>
       </c>
       <c r="AF3" t="n">
         <v>2.252813318494091e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.8671875</v>
       </c>
       <c r="AH3" t="n">
-        <v>143127.9052141202</v>
+        <v>201996.6783354375</v>
       </c>
     </row>
     <row r="4">
@@ -10505,28 +10505,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>110.3087002792626</v>
+        <v>148.3203484283819</v>
       </c>
       <c r="AB4" t="n">
-        <v>150.9292301984202</v>
+        <v>202.938444151582</v>
       </c>
       <c r="AC4" t="n">
-        <v>136.5247562988292</v>
+        <v>183.5702838677079</v>
       </c>
       <c r="AD4" t="n">
-        <v>110308.7002792626</v>
+        <v>148320.348428382</v>
       </c>
       <c r="AE4" t="n">
-        <v>150929.2301984202</v>
+        <v>202938.444151582</v>
       </c>
       <c r="AF4" t="n">
         <v>2.431936277654154e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.216145833333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>136524.7562988292</v>
+        <v>183570.2838677079</v>
       </c>
     </row>
     <row r="5">
@@ -10611,28 +10611,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>109.9847172090919</v>
+        <v>147.9963653582112</v>
       </c>
       <c r="AB5" t="n">
-        <v>150.4859422686886</v>
+        <v>202.4951562218503</v>
       </c>
       <c r="AC5" t="n">
-        <v>136.1237751469525</v>
+        <v>183.1693027158312</v>
       </c>
       <c r="AD5" t="n">
-        <v>109984.7172090919</v>
+        <v>147996.3653582112</v>
       </c>
       <c r="AE5" t="n">
-        <v>150485.9422686886</v>
+        <v>202495.1562218503</v>
       </c>
       <c r="AF5" t="n">
         <v>2.446817167546691e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.1640625</v>
       </c>
       <c r="AH5" t="n">
-        <v>136123.7751469525</v>
+        <v>183169.3027158312</v>
       </c>
     </row>
   </sheetData>
@@ -10908,28 +10908,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>127.6071845537151</v>
+        <v>183.9444539280337</v>
       </c>
       <c r="AB2" t="n">
-        <v>174.5977795379797</v>
+        <v>251.680916920796</v>
       </c>
       <c r="AC2" t="n">
-        <v>157.9344125084463</v>
+        <v>227.6608434463338</v>
       </c>
       <c r="AD2" t="n">
-        <v>127607.1845537151</v>
+        <v>183944.4539280336</v>
       </c>
       <c r="AE2" t="n">
-        <v>174597.7795379797</v>
+        <v>251680.916920796</v>
       </c>
       <c r="AF2" t="n">
         <v>2.274826546016152e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.986979166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>157934.4125084463</v>
+        <v>227660.8434463338</v>
       </c>
     </row>
     <row r="3">
@@ -11014,28 +11014,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>106.6166943448357</v>
+        <v>144.153108011718</v>
       </c>
       <c r="AB3" t="n">
-        <v>145.8776647991335</v>
+        <v>197.2366419678333</v>
       </c>
       <c r="AC3" t="n">
-        <v>131.9553052113322</v>
+        <v>178.4126536818447</v>
       </c>
       <c r="AD3" t="n">
-        <v>106616.6943448357</v>
+        <v>144153.108011718</v>
       </c>
       <c r="AE3" t="n">
-        <v>145877.6647991335</v>
+        <v>197236.6419678333</v>
       </c>
       <c r="AF3" t="n">
         <v>2.748812704137976e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.26171875</v>
       </c>
       <c r="AH3" t="n">
-        <v>131955.3052113322</v>
+        <v>178412.6536818447</v>
       </c>
     </row>
     <row r="4">
@@ -11120,28 +11120,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>106.6539000933136</v>
+        <v>144.1903137601959</v>
       </c>
       <c r="AB4" t="n">
-        <v>145.9285713456027</v>
+        <v>197.2875485143025</v>
       </c>
       <c r="AC4" t="n">
-        <v>132.0013533084542</v>
+        <v>178.4587017789667</v>
       </c>
       <c r="AD4" t="n">
-        <v>106653.9000933136</v>
+        <v>144190.3137601959</v>
       </c>
       <c r="AE4" t="n">
-        <v>145928.5713456027</v>
+        <v>197287.5485143025</v>
       </c>
       <c r="AF4" t="n">
         <v>2.752196824360103e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.255208333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>132001.3533084542</v>
+        <v>178458.7017789667</v>
       </c>
     </row>
   </sheetData>
@@ -19710,28 +19710,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>117.5627175348691</v>
+        <v>154.7534328165542</v>
       </c>
       <c r="AB2" t="n">
-        <v>160.8544966321913</v>
+        <v>211.740474019128</v>
       </c>
       <c r="AC2" t="n">
-        <v>145.5027692343632</v>
+        <v>191.5322603584247</v>
       </c>
       <c r="AD2" t="n">
-        <v>117562.7175348691</v>
+        <v>154753.4328165542</v>
       </c>
       <c r="AE2" t="n">
-        <v>160854.4966321913</v>
+        <v>211740.474019128</v>
       </c>
       <c r="AF2" t="n">
         <v>2.804464183061472e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.095052083333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>145502.7692343632</v>
+        <v>191532.2603584247</v>
       </c>
     </row>
     <row r="3">
@@ -19816,28 +19816,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>104.1399545765954</v>
+        <v>141.2965044394997</v>
       </c>
       <c r="AB3" t="n">
-        <v>142.488880182182</v>
+        <v>193.3281109358709</v>
       </c>
       <c r="AC3" t="n">
-        <v>128.8899414420323</v>
+        <v>174.8771473659139</v>
       </c>
       <c r="AD3" t="n">
-        <v>104139.9545765954</v>
+        <v>141296.5044394997</v>
       </c>
       <c r="AE3" t="n">
-        <v>142488.880182182</v>
+        <v>193328.1109358709</v>
       </c>
       <c r="AF3" t="n">
         <v>3.031554551680661e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.411458333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>128889.9414420323</v>
+        <v>174877.1473659139</v>
       </c>
     </row>
   </sheetData>
@@ -20113,28 +20113,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>109.2430781916777</v>
+        <v>145.6807856115094</v>
       </c>
       <c r="AB2" t="n">
-        <v>149.4711990462587</v>
+        <v>199.3268778562458</v>
       </c>
       <c r="AC2" t="n">
-        <v>135.2058775934699</v>
+        <v>180.3034003907324</v>
       </c>
       <c r="AD2" t="n">
-        <v>109243.0781916776</v>
+        <v>145680.7856115093</v>
       </c>
       <c r="AE2" t="n">
-        <v>149471.1990462587</v>
+        <v>199326.8778562458</v>
       </c>
       <c r="AF2" t="n">
         <v>3.657082757362646e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.225260416666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>135205.8775934699</v>
+        <v>180303.4003907324</v>
       </c>
     </row>
   </sheetData>
@@ -20410,28 +20410,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>184.996339828102</v>
+        <v>242.6516311736999</v>
       </c>
       <c r="AB2" t="n">
-        <v>253.1201536151994</v>
+        <v>332.0066668061449</v>
       </c>
       <c r="AC2" t="n">
-        <v>228.9627214106053</v>
+        <v>300.3204165005487</v>
       </c>
       <c r="AD2" t="n">
-        <v>184996.3398281019</v>
+        <v>242651.6311736999</v>
       </c>
       <c r="AE2" t="n">
-        <v>253120.1536151994</v>
+        <v>332006.6668061449</v>
       </c>
       <c r="AF2" t="n">
         <v>1.490843955760935e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.15494791666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>228962.7214106053</v>
+        <v>300320.4165005487</v>
       </c>
     </row>
     <row r="3">
@@ -20516,28 +20516,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>132.6735414482711</v>
+        <v>180.6742321828712</v>
       </c>
       <c r="AB3" t="n">
-        <v>181.5297925529992</v>
+        <v>247.2064552570657</v>
       </c>
       <c r="AC3" t="n">
-        <v>164.2048439304559</v>
+        <v>223.6134181238422</v>
       </c>
       <c r="AD3" t="n">
-        <v>132673.5414482711</v>
+        <v>180674.2321828712</v>
       </c>
       <c r="AE3" t="n">
-        <v>181529.7925529992</v>
+        <v>247206.4552570657</v>
       </c>
       <c r="AF3" t="n">
         <v>1.951565236484008e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.283854166666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>164204.8439304559</v>
+        <v>223613.4181238422</v>
       </c>
     </row>
     <row r="4">
@@ -20622,28 +20622,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>116.6474537224251</v>
+        <v>155.061874683589</v>
       </c>
       <c r="AB4" t="n">
-        <v>159.6021923054164</v>
+        <v>212.1624977890995</v>
       </c>
       <c r="AC4" t="n">
-        <v>144.3699830749151</v>
+        <v>191.9140067721043</v>
       </c>
       <c r="AD4" t="n">
-        <v>116647.4537224251</v>
+        <v>155061.874683589</v>
       </c>
       <c r="AE4" t="n">
-        <v>159602.1923054164</v>
+        <v>212162.4977890995</v>
       </c>
       <c r="AF4" t="n">
         <v>2.132930743668952e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.49609375</v>
       </c>
       <c r="AH4" t="n">
-        <v>144369.9830749151</v>
+        <v>191914.0067721043</v>
       </c>
     </row>
     <row r="5">
@@ -20728,28 +20728,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>114.8438993581102</v>
+        <v>153.2583203192741</v>
       </c>
       <c r="AB5" t="n">
-        <v>157.1344896569589</v>
+        <v>209.6947951406421</v>
       </c>
       <c r="AC5" t="n">
-        <v>142.1377945037833</v>
+        <v>189.6818182009725</v>
       </c>
       <c r="AD5" t="n">
-        <v>114843.8993581102</v>
+        <v>153258.3203192741</v>
       </c>
       <c r="AE5" t="n">
-        <v>157134.489656959</v>
+        <v>209694.7951406421</v>
       </c>
       <c r="AF5" t="n">
         <v>2.169203845105941e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.352864583333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>142137.7945037833</v>
+        <v>189681.8182009725</v>
       </c>
     </row>
     <row r="6">
@@ -20834,28 +20834,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>112.8993703669748</v>
+        <v>151.3137913281387</v>
       </c>
       <c r="AB6" t="n">
-        <v>154.4738993047243</v>
+        <v>207.0342047884074</v>
       </c>
       <c r="AC6" t="n">
-        <v>139.731127160603</v>
+        <v>187.2751508577922</v>
       </c>
       <c r="AD6" t="n">
-        <v>112899.3703669748</v>
+        <v>151313.7913281387</v>
       </c>
       <c r="AE6" t="n">
-        <v>154473.8993047243</v>
+        <v>207034.2047884074</v>
       </c>
       <c r="AF6" t="n">
         <v>2.230085865706628e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.125</v>
       </c>
       <c r="AH6" t="n">
-        <v>139731.127160603</v>
+        <v>187275.1508577922</v>
       </c>
     </row>
   </sheetData>
@@ -21131,28 +21131,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>233.6787358320386</v>
+        <v>301.7657175750565</v>
       </c>
       <c r="AB2" t="n">
-        <v>319.7295555434856</v>
+        <v>412.8891677500709</v>
       </c>
       <c r="AC2" t="n">
-        <v>289.2150155057598</v>
+        <v>373.4836050735899</v>
       </c>
       <c r="AD2" t="n">
-        <v>233678.7358320386</v>
+        <v>301765.7175750565</v>
       </c>
       <c r="AE2" t="n">
-        <v>319729.5555434856</v>
+        <v>412889.1677500709</v>
       </c>
       <c r="AF2" t="n">
         <v>1.14679153718801e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.27734375</v>
       </c>
       <c r="AH2" t="n">
-        <v>289215.0155057598</v>
+        <v>373483.6050735899</v>
       </c>
     </row>
     <row r="3">
@@ -21237,28 +21237,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>154.9123242952405</v>
+        <v>203.526648452335</v>
       </c>
       <c r="AB3" t="n">
-        <v>211.9578763500637</v>
+        <v>278.4741393743827</v>
       </c>
       <c r="AC3" t="n">
-        <v>191.7289141160221</v>
+        <v>251.8969583534827</v>
       </c>
       <c r="AD3" t="n">
-        <v>154912.3242952405</v>
+        <v>203526.648452335</v>
       </c>
       <c r="AE3" t="n">
-        <v>211957.8763500637</v>
+        <v>278474.1393743827</v>
       </c>
       <c r="AF3" t="n">
         <v>1.613809121733582e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.14973958333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>191728.9141160221</v>
+        <v>251896.9583534827</v>
       </c>
     </row>
     <row r="4">
@@ -21343,28 +21343,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>137.4063243751465</v>
+        <v>176.318485158062</v>
       </c>
       <c r="AB4" t="n">
-        <v>188.0053949491935</v>
+        <v>241.2467300157282</v>
       </c>
       <c r="AC4" t="n">
-        <v>170.0624239225245</v>
+        <v>218.2224806950091</v>
       </c>
       <c r="AD4" t="n">
-        <v>137406.3243751465</v>
+        <v>176318.485158062</v>
       </c>
       <c r="AE4" t="n">
-        <v>188005.3949491935</v>
+        <v>241246.7300157282</v>
       </c>
       <c r="AF4" t="n">
         <v>1.773514747300739e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.231770833333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>170062.4239225245</v>
+        <v>218222.4806950091</v>
       </c>
     </row>
     <row r="5">
@@ -21449,28 +21449,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>122.8376768947408</v>
+        <v>171.485155440759</v>
       </c>
       <c r="AB5" t="n">
-        <v>168.0719287431469</v>
+        <v>234.6335550650595</v>
       </c>
       <c r="AC5" t="n">
-        <v>152.0313797543811</v>
+        <v>212.2404578799808</v>
       </c>
       <c r="AD5" t="n">
-        <v>122837.6768947408</v>
+        <v>171485.155440759</v>
       </c>
       <c r="AE5" t="n">
-        <v>168071.9287431469</v>
+        <v>234633.5550650595</v>
       </c>
       <c r="AF5" t="n">
         <v>1.882358067796736e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.697916666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>152031.3797543811</v>
+        <v>212240.4578799808</v>
       </c>
     </row>
     <row r="6">
@@ -21555,28 +21555,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>120.2492451734195</v>
+        <v>159.1272405375542</v>
       </c>
       <c r="AB6" t="n">
-        <v>164.5303222684885</v>
+        <v>217.7249107017754</v>
       </c>
       <c r="AC6" t="n">
-        <v>148.8277792309871</v>
+        <v>196.9455508032918</v>
       </c>
       <c r="AD6" t="n">
-        <v>120249.2451734194</v>
+        <v>159127.2405375542</v>
       </c>
       <c r="AE6" t="n">
-        <v>164530.3222684885</v>
+        <v>217724.9107017754</v>
       </c>
       <c r="AF6" t="n">
         <v>1.937597247784998e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.450520833333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>148827.7792309871</v>
+        <v>196945.5508032918</v>
       </c>
     </row>
     <row r="7">
@@ -21661,28 +21661,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>117.7464685522637</v>
+        <v>156.6244639163984</v>
       </c>
       <c r="AB7" t="n">
-        <v>161.1059128807131</v>
+        <v>214.300501314</v>
       </c>
       <c r="AC7" t="n">
-        <v>145.7301906689911</v>
+        <v>193.8479622412958</v>
       </c>
       <c r="AD7" t="n">
-        <v>117746.4685522637</v>
+        <v>156624.4639163984</v>
       </c>
       <c r="AE7" t="n">
-        <v>161105.9128807131</v>
+        <v>214300.501314</v>
       </c>
       <c r="AF7" t="n">
         <v>1.988535016216797e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.235677083333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>145730.1906689911</v>
+        <v>193847.9622412958</v>
       </c>
     </row>
     <row r="8">
@@ -21767,28 +21767,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>117.1127865172847</v>
+        <v>155.9907818814194</v>
       </c>
       <c r="AB8" t="n">
-        <v>160.2388811643769</v>
+        <v>213.4334695976638</v>
       </c>
       <c r="AC8" t="n">
-        <v>144.9459072427751</v>
+        <v>193.0636788150798</v>
       </c>
       <c r="AD8" t="n">
-        <v>117112.7865172847</v>
+        <v>155990.7818814194</v>
       </c>
       <c r="AE8" t="n">
-        <v>160238.8811643769</v>
+        <v>213433.4695976638</v>
       </c>
       <c r="AF8" t="n">
         <v>1.996911449247804e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>8.203125</v>
       </c>
       <c r="AH8" t="n">
-        <v>144945.9072427751</v>
+        <v>193063.6788150798</v>
       </c>
     </row>
   </sheetData>
@@ -22064,28 +22064,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>117.0569960803433</v>
+        <v>162.138023061324</v>
       </c>
       <c r="AB2" t="n">
-        <v>160.1625462272534</v>
+        <v>221.8443961771458</v>
       </c>
       <c r="AC2" t="n">
-        <v>144.8768576049139</v>
+        <v>200.6718783666283</v>
       </c>
       <c r="AD2" t="n">
-        <v>117056.9960803433</v>
+        <v>162138.023061324</v>
       </c>
       <c r="AE2" t="n">
-        <v>160162.5462272534</v>
+        <v>221844.3961771458</v>
       </c>
       <c r="AF2" t="n">
         <v>3.875980457448716e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.24739583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>144876.8576049139</v>
+        <v>200671.8783666283</v>
       </c>
     </row>
   </sheetData>
@@ -22361,28 +22361,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>129.4452437133331</v>
+        <v>186.0355600388579</v>
       </c>
       <c r="AB2" t="n">
-        <v>177.1126931696149</v>
+        <v>254.5420605547151</v>
       </c>
       <c r="AC2" t="n">
-        <v>160.2093063127824</v>
+        <v>230.2489235474729</v>
       </c>
       <c r="AD2" t="n">
-        <v>129445.2437133331</v>
+        <v>186035.5600388579</v>
       </c>
       <c r="AE2" t="n">
-        <v>177112.6931696149</v>
+        <v>254542.060554715</v>
       </c>
       <c r="AF2" t="n">
         <v>2.168944233108745e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.986979166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>160209.3063127825</v>
+        <v>230248.9235474729</v>
       </c>
     </row>
     <row r="3">
@@ -22467,28 +22467,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>109.5742966868442</v>
+        <v>147.2794083211974</v>
       </c>
       <c r="AB3" t="n">
-        <v>149.9243868036741</v>
+        <v>201.5141839738964</v>
       </c>
       <c r="AC3" t="n">
-        <v>135.6158137473707</v>
+        <v>182.2819530824185</v>
       </c>
       <c r="AD3" t="n">
-        <v>109574.2966868442</v>
+        <v>147279.4083211974</v>
       </c>
       <c r="AE3" t="n">
-        <v>149924.3868036741</v>
+        <v>201514.1839738964</v>
       </c>
       <c r="AF3" t="n">
         <v>2.561086848620184e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.45703125</v>
       </c>
       <c r="AH3" t="n">
-        <v>135615.8137473707</v>
+        <v>182281.9530824185</v>
       </c>
     </row>
     <row r="4">
@@ -22573,28 +22573,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>107.8070564698276</v>
+        <v>145.5121681041808</v>
       </c>
       <c r="AB4" t="n">
-        <v>147.5063707736172</v>
+        <v>199.0961679438396</v>
       </c>
       <c r="AC4" t="n">
-        <v>133.4285697735149</v>
+        <v>180.0947091085627</v>
       </c>
       <c r="AD4" t="n">
-        <v>107807.0564698276</v>
+        <v>145512.1681041808</v>
       </c>
       <c r="AE4" t="n">
-        <v>147506.3707736172</v>
+        <v>199096.1679438396</v>
       </c>
       <c r="AF4" t="n">
         <v>2.630486144111561e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.235677083333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>133428.5697735149</v>
+        <v>180094.7091085627</v>
       </c>
     </row>
   </sheetData>
@@ -22870,28 +22870,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>162.3917221986532</v>
+        <v>210.1333075553399</v>
       </c>
       <c r="AB2" t="n">
-        <v>222.1915185292555</v>
+        <v>287.5136618243385</v>
       </c>
       <c r="AC2" t="n">
-        <v>200.985871848642</v>
+        <v>260.073761467867</v>
       </c>
       <c r="AD2" t="n">
-        <v>162391.7221986532</v>
+        <v>210133.3075553399</v>
       </c>
       <c r="AE2" t="n">
-        <v>222191.5185292555</v>
+        <v>287513.6618243385</v>
       </c>
       <c r="AF2" t="n">
         <v>1.739139247367435e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.08723958333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>200985.871848642</v>
+        <v>260073.761467867</v>
       </c>
     </row>
     <row r="3">
@@ -22976,28 +22976,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>116.5983684750585</v>
+        <v>164.338942801888</v>
       </c>
       <c r="AB3" t="n">
-        <v>159.5350317044811</v>
+        <v>224.8557916639101</v>
       </c>
       <c r="AC3" t="n">
-        <v>144.3092321874726</v>
+        <v>203.3958704946568</v>
       </c>
       <c r="AD3" t="n">
-        <v>116598.3684750585</v>
+        <v>164338.942801888</v>
       </c>
       <c r="AE3" t="n">
-        <v>159535.0317044811</v>
+        <v>224855.7916639101</v>
       </c>
       <c r="AF3" t="n">
         <v>2.190195070019189e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.80859375</v>
       </c>
       <c r="AH3" t="n">
-        <v>144309.2321874726</v>
+        <v>203395.8704946568</v>
       </c>
     </row>
     <row r="4">
@@ -23082,28 +23082,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>112.9993540575047</v>
+        <v>151.1518260462886</v>
       </c>
       <c r="AB4" t="n">
-        <v>154.6107014010763</v>
+        <v>206.8125967443763</v>
       </c>
       <c r="AC4" t="n">
-        <v>139.8548730568822</v>
+        <v>187.0746927744545</v>
       </c>
       <c r="AD4" t="n">
-        <v>112999.3540575048</v>
+        <v>151151.8260462886</v>
       </c>
       <c r="AE4" t="n">
-        <v>154610.7014010763</v>
+        <v>206812.5967443763</v>
       </c>
       <c r="AF4" t="n">
         <v>2.302233236397025e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.37890625</v>
       </c>
       <c r="AH4" t="n">
-        <v>139854.8730568822</v>
+        <v>187074.6927744545</v>
       </c>
     </row>
     <row r="5">
@@ -23188,28 +23188,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>110.841770319005</v>
+        <v>148.9942423077889</v>
       </c>
       <c r="AB5" t="n">
-        <v>151.6586001441858</v>
+        <v>203.8604954874858</v>
       </c>
       <c r="AC5" t="n">
-        <v>137.1845162006483</v>
+        <v>184.4043359182205</v>
       </c>
       <c r="AD5" t="n">
-        <v>110841.770319005</v>
+        <v>148994.2423077888</v>
       </c>
       <c r="AE5" t="n">
-        <v>151658.6001441858</v>
+        <v>203860.4954874858</v>
       </c>
       <c r="AF5" t="n">
         <v>2.366250813748296e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.151041666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>137184.5162006483</v>
+        <v>184404.3359182205</v>
       </c>
     </row>
     <row r="6">
@@ -23294,28 +23294,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>110.9940620330936</v>
+        <v>149.1465340218774</v>
       </c>
       <c r="AB6" t="n">
-        <v>151.866972386038</v>
+        <v>204.0688677293379</v>
       </c>
       <c r="AC6" t="n">
-        <v>137.3730016881904</v>
+        <v>184.5928214057627</v>
       </c>
       <c r="AD6" t="n">
-        <v>110994.0620330936</v>
+        <v>149146.5340218775</v>
       </c>
       <c r="AE6" t="n">
-        <v>151866.972386038</v>
+        <v>204068.8677293379</v>
       </c>
       <c r="AF6" t="n">
         <v>2.365776828909045e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.151041666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>137373.0016881904</v>
+        <v>184592.8214057627</v>
       </c>
     </row>
   </sheetData>
